--- a/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>870</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,67 +770,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>433</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5119</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>2,16%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>3071</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>1530</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>5344</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61093</t>
+          <t>74865</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59402</t>
+          <t>72916</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62058</t>
+          <t>76011</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,67 +883,67 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61145</t>
+          <t>65162</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59357</t>
+          <t>63827</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62018</t>
+          <t>65809</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>98,37%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>140028</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>138004</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>141329</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>97,84%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>94,98%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>99,24%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>710</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>122238</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>119965</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>123779</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>97,55%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>98,75%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>786</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>323</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6784</t>
+          <t>5786</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3883</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8603</t>
+          <t>6692</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67831</t>
+          <t>74197</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66310</t>
+          <t>73302</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68711</t>
+          <t>74660</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>57902</t>
+          <t>64238</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>55699</t>
+          <t>62262</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>59520</t>
+          <t>65625</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>125731</t>
+          <t>138435</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>123044</t>
+          <t>136339</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>127764</t>
+          <t>139873</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>993</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8950</t>
+          <t>10058</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8450</t>
+          <t>9345</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6526</t>
+          <t>7007</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11192</t>
+          <t>12543</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92764</t>
+          <t>102128</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91218</t>
+          <t>100476</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93814</t>
+          <t>102967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90986</t>
+          <t>103201</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88555</t>
+          <t>100657</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92860</t>
+          <t>105292</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>183750</t>
+          <t>205330</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>181008</t>
+          <t>202132</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>185674</t>
+          <t>207668</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,74%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3833</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>6324</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10644</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8144</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>12461</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>14477</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11464</t>
+          <t>10739</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17861</t>
+          <t>16932</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135581</t>
+          <t>140775</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>133617</t>
+          <t>138454</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>137049</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>127331</t>
+          <t>143098</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>123665</t>
+          <t>140083</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>129831</t>
+          <t>145424</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>262913</t>
+          <t>283872</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>259529</t>
+          <t>280389</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>265926</t>
+          <t>286582</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,39%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7069</t>
+          <t>5615</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10259</t>
+          <t>9407</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7621</t>
+          <t>7165</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13397</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>13200</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11662</t>
+          <t>10469</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18903</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>122191</t>
+          <t>125788</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>119785</t>
+          <t>123967</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123878</t>
+          <t>127131</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>137082</t>
+          <t>142508</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>133944</t>
+          <t>139492</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139720</t>
+          <t>144750</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>259273</t>
+          <t>268298</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>255291</t>
+          <t>264780</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>262532</t>
+          <t>271029</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5992</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8419</t>
+          <t>8700</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12043</t>
+          <t>11615</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9373</t>
+          <t>9187</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15324</t>
+          <t>14435</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>18035</t>
+          <t>17929</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>14675</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>22598</t>
+          <t>21351</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>101612</t>
+          <t>98151</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>99185</t>
+          <t>95766</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>103370</t>
+          <t>100091</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102865</t>
+          <t>104165</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99584</t>
+          <t>101345</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105535</t>
+          <t>106593</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>204477</t>
+          <t>202317</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>199914</t>
+          <t>198895</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>207612</t>
+          <t>205571</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,34%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11743</t>
+          <t>9437</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8902</t>
+          <t>7371</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>12103</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22806</t>
+          <t>22328</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>19027</t>
+          <t>18921</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>26518</t>
+          <t>26411</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>34548</t>
+          <t>31764</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>30175</t>
+          <t>27854</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>40088</t>
+          <t>36769</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>16,6%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>84612</t>
+          <t>79786</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>81472</t>
+          <t>77120</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87453</t>
+          <t>81852</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>111125</t>
+          <t>109984</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>107413</t>
+          <t>105901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>114904</t>
+          <t>113391</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>195738</t>
+          <t>189771</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>190198</t>
+          <t>184766</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>200111</t>
+          <t>193681</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>87,43%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26496</t>
+          <t>23945</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36513</t>
+          <t>33095</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>65198</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>62266</t>
+          <t>59161</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>75441</t>
+          <t>71947</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>99419</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>90753</t>
+          <t>85653</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>108185</t>
+          <t>101985</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>665684</t>
+          <t>695691</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>660390</t>
+          <t>690777</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>670407</t>
+          <t>699927</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>688435</t>
+          <t>732358</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>681194</t>
+          <t>725609</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>694369</t>
+          <t>738395</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1354119</t>
+          <t>1428050</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1345353</t>
+          <t>1419444</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1362785</t>
+          <t>1435776</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11287</t>
+          <t>11228</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12306</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16322</t>
+          <t>15033</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>224949</t>
+          <t>225008</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>168555</t>
+          <t>172047</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>404267</t>
+          <t>405556</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8556</t>
+          <t>9111</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4786</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22599</t>
+          <t>22314</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7362</t>
+          <t>7484</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>24940</t>
+          <t>26749</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220812</t>
+          <t>220257</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>291829</t>
+          <t>292114</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>309642</t>
+          <t>309359</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>518856</t>
+          <t>517047</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>536434</t>
+          <t>536312</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,62%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12922</t>
+          <t>13450</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13978</t>
+          <t>13775</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7782</t>
+          <t>8215</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21671</t>
+          <t>21846</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>297847</t>
+          <t>297319</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308492</t>
+          <t>308544</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>308635</t>
+          <t>308838</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>318228</t>
+          <t>318345</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>611710</t>
+          <t>611535</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>625599</t>
+          <t>625166</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,7%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>822</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14746</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14158</t>
+          <t>13627</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26131</t>
+          <t>26003</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10851</t>
+          <t>12057</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>37877</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>612418</t>
+          <t>613354</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>626129</t>
+          <t>626342</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>378671</t>
+          <t>378799</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>390644</t>
+          <t>391175</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>994089</t>
+          <t>993426</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1021115</t>
+          <t>1019909</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>98,83%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7086</t>
+          <t>6706</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21561</t>
+          <t>20358</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18714</t>
+          <t>18863</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33624</t>
+          <t>32911</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27815</t>
+          <t>28937</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47716</t>
+          <t>48147</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>317568</t>
+          <t>318771</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>332043</t>
+          <t>332423</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>285270</t>
+          <t>285983</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>300180</t>
+          <t>300031</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>610308</t>
+          <t>609877</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>630209</t>
+          <t>629087</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>95,6%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12068</t>
+          <t>11679</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4625</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>32829</t>
+          <t>33755</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36049</t>
+          <t>36464</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>196016</t>
+          <t>196405</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205155</t>
+          <t>205043</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>419813</t>
+          <t>418887</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>448017</t>
+          <t>448893</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>624678</t>
+          <t>624263</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>652228</t>
+          <t>652644</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,78%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>911</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5846</t>
+          <t>6027</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20738</t>
+          <t>20614</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>35683</t>
+          <t>35535</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>22543</t>
+          <t>22190</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>39010</t>
+          <t>38053</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>145439</t>
+          <t>145258</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150655</t>
+          <t>150374</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197590</t>
+          <t>197738</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>212535</t>
+          <t>212659</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>345548</t>
+          <t>346505</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>362015</t>
+          <t>362368</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,23%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23619</t>
+          <t>21537</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52267</t>
+          <t>50697</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>78024</t>
+          <t>77616</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>131807</t>
+          <t>131597</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>113864</t>
+          <t>113344</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>173377</t>
+          <t>173931</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2049768</t>
+          <t>2051338</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2078416</t>
+          <t>2080498</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2099199</t>
+          <t>2099409</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2152982</t>
+          <t>2153390</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4159664</t>
+          <t>4159110</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4219177</t>
+          <t>4219697</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>97,38%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>10289</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>2448</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>12264</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>14151</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74865</t>
+          <t>239610</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72916</t>
+          <t>230976</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76011</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65162</t>
+          <t>217207</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63827</t>
+          <t>207391</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65809</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>140028</t>
+          <t>456817</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138004</t>
+          <t>446769</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141329</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>18545</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>12531</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>6830</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>21366</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>18354</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>10832</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6692</t>
+          <t>30819</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74197</t>
+          <t>256150</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73302</t>
+          <t>243429</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74660</t>
+          <t>260392</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>238</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64238</t>
+          <t>270922</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62262</t>
+          <t>262087</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65625</t>
+          <t>276623</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>388</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>138435</t>
+          <t>527072</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>136339</t>
+          <t>514607</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>139873</t>
+          <t>534594</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3484</t>
+          <t>13889</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>9322</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>5181</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10058</t>
+          <t>15641</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9345</t>
+          <t>15203</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7007</t>
+          <t>9179</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12543</t>
+          <t>23428</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102128</t>
+          <t>362437</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100476</t>
+          <t>354429</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102967</t>
+          <t>366032</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>103201</t>
+          <t>364063</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>100657</t>
+          <t>357744</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>105292</t>
+          <t>368204</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>205330</t>
+          <t>726500</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202132</t>
+          <t>718275</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>207668</t>
+          <t>732524</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>98,76%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>7416</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>15717</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9446</t>
+          <t>21381</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>15101</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12461</t>
+          <t>28669</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13449</t>
+          <t>28797</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10739</t>
+          <t>21346</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16932</t>
+          <t>39341</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>140775</t>
+          <t>416525</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138454</t>
+          <t>408224</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>142210</t>
+          <t>420777</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>143098</t>
+          <t>419911</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>140083</t>
+          <t>412623</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>145424</t>
+          <t>426191</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>283872</t>
+          <t>836437</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>280389</t>
+          <t>825893</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>286582</t>
+          <t>843888</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3794</t>
+          <t>12451</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6760</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5615</t>
+          <t>20247</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28348</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21430</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37101</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>40799</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>31526</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>51890</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>4,33%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>9407</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>7165</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>12423</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>8,18%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>13200</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>10469</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>16718</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,12%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125788</t>
+          <t>355592</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>123967</t>
+          <t>347796</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>127131</t>
+          <t>361283</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>98,16%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>332018</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>323265</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>338936</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>92,13%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>94,05%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>687609</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>676518</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>696882</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>94,4%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
           <t>95,67%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>98,11%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>805</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>142508</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>139492</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>144750</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>93,81%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>91,82%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>95,28%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>1514</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>268298</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>264780</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>271029</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>95,31%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>94,06%</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="inlineStr">
-        <is>
-          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6315</t>
+          <t>7047</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8700</t>
+          <t>13091</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11615</t>
+          <t>18222</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9187</t>
+          <t>12799</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14435</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>17929</t>
+          <t>25269</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14675</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>21351</t>
+          <t>34251</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>98151</t>
+          <t>224226</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>95766</t>
+          <t>218182</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>100091</t>
+          <t>227952</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104165</t>
+          <t>251810</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>101345</t>
+          <t>244736</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106593</t>
+          <t>257233</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>759</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>202317</t>
+          <t>476035</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>198895</t>
+          <t>467053</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>205571</t>
+          <t>483179</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>96,38%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9437</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7371</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12103</t>
+          <t>7255</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22328</t>
+          <t>28965</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>18921</t>
+          <t>22262</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>26411</t>
+          <t>38560</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>31764</t>
+          <t>32090</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>27854</t>
+          <t>23983</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>36769</t>
+          <t>41207</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>9,78%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79786</t>
+          <t>161961</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77120</t>
+          <t>157831</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>81852</t>
+          <t>163920</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>390</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>109984</t>
+          <t>227311</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>105901</t>
+          <t>217716</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>113391</t>
+          <t>234014</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,12%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>615</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>189771</t>
+          <t>389272</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>184766</t>
+          <t>380155</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>193681</t>
+          <t>397379</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>28181</t>
+          <t>43398</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23945</t>
+          <t>31520</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33095</t>
+          <t>59127</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>65198</t>
+          <t>121216</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>59161</t>
+          <t>103818</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>71947</t>
+          <t>140674</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>229</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>93379</t>
+          <t>164614</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>85653</t>
+          <t>142913</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>101985</t>
+          <t>187885</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>695691</t>
+          <t>2016502</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>690777</t>
+          <t>2000773</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>699927</t>
+          <t>2028380</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>732358</t>
+          <t>2083243</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>725609</t>
+          <t>2063785</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>738395</t>
+          <t>2100641</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7993</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1428050</t>
+          <t>4099744</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1419444</t>
+          <t>4076473</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1435776</t>
+          <t>4121445</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>627</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11228</t>
+          <t>6099</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>5862</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12306</t>
+          <t>10519</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>8207</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4531</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15033</t>
+          <t>14186</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>234431</t>
+          <t>167826</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>225008</t>
+          <t>164072</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>169544</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>181817</t>
+          <t>164580</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>172047</t>
+          <t>159923</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>167339</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>529</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>416248</t>
+          <t>332406</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>405556</t>
+          <t>326427</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>336082</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9111</t>
+          <t>8712</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12362</t>
+          <t>14716</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>9093</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22314</t>
+          <t>22926</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>14253</t>
+          <t>18328</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7484</t>
+          <t>12459</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>26749</t>
+          <t>28054</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>227477</t>
+          <t>178600</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220257</t>
+          <t>173501</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229204</t>
+          <t>180992</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>302066</t>
+          <t>196762</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>292114</t>
+          <t>188552</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>309359</t>
+          <t>202385</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>529543</t>
+          <t>375362</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>517047</t>
+          <t>365636</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>536312</t>
+          <t>381231</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5754</t>
+          <t>5494</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2225</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13450</t>
+          <t>10893</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7936</t>
+          <t>14692</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>8473</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13775</t>
+          <t>21871</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13690</t>
+          <t>20186</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8215</t>
+          <t>12337</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21846</t>
+          <t>28531</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>305015</t>
+          <t>242819</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>297319</t>
+          <t>237420</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308544</t>
+          <t>246017</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>386</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>314677</t>
+          <t>233959</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>308838</t>
+          <t>226780</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>318345</t>
+          <t>240178</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>771</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>619691</t>
+          <t>476778</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>611535</t>
+          <t>468433</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>625166</t>
+          <t>484627</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>97,52%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6116</t>
+          <t>4589</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>9798</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19465</t>
+          <t>14497</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13627</t>
+          <t>9711</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26003</t>
+          <t>20719</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25581</t>
+          <t>19086</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12057</t>
+          <t>13405</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>25821</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>621048</t>
+          <t>292418</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>613354</t>
+          <t>287209</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>626342</t>
+          <t>294935</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>431</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>385337</t>
+          <t>264478</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>378799</t>
+          <t>258256</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>391175</t>
+          <t>269264</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>908</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1006385</t>
+          <t>556897</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>993426</t>
+          <t>550162</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1019909</t>
+          <t>562578</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12422</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6706</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20358</t>
+          <t>8775</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24856</t>
+          <t>18181</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18863</t>
+          <t>12943</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32911</t>
+          <t>25458</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>37278</t>
+          <t>22476</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28937</t>
+          <t>16281</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48147</t>
+          <t>30790</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>326707</t>
+          <t>230405</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>318771</t>
+          <t>225925</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>332423</t>
+          <t>232712</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>294038</t>
+          <t>235915</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>285983</t>
+          <t>228638</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>300031</t>
+          <t>241153</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>749</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>620746</t>
+          <t>466320</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>609877</t>
+          <t>458006</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>629087</t>
+          <t>472515</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>96,67%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11679</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16367</t>
+          <t>16643</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>12561</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33755</t>
+          <t>22398</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>22784</t>
+          <t>22546</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8083</t>
+          <t>17404</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36464</t>
+          <t>28551</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>201667</t>
+          <t>178144</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>196405</t>
+          <t>175042</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205043</t>
+          <t>180397</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>436275</t>
+          <t>172031</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>418887</t>
+          <t>166276</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>448893</t>
+          <t>176113</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>991</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>637943</t>
+          <t>350177</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>624263</t>
+          <t>344172</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>652644</t>
+          <t>355319</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>95,33%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>11776</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>8277</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>15814</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26956</t>
+          <t>22093</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20614</t>
+          <t>17290</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>35535</t>
+          <t>28456</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>29437</t>
+          <t>33869</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>22190</t>
+          <t>27533</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>38053</t>
+          <t>41400</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148804</t>
+          <t>134757</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>145258</t>
+          <t>130719</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150374</t>
+          <t>138256</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>206317</t>
+          <t>189727</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197738</t>
+          <t>183364</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>212659</t>
+          <t>194530</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>913</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>355121</t>
+          <t>324484</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>346505</t>
+          <t>316953</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>362368</t>
+          <t>330820</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>92,32%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>36886</t>
+          <t>38016</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21537</t>
+          <t>29963</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50697</t>
+          <t>48275</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>110478</t>
+          <t>106683</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>77616</t>
+          <t>91289</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>131597</t>
+          <t>122456</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>302</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>147364</t>
+          <t>144699</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>113344</t>
+          <t>128587</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>173931</t>
+          <t>165616</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2065149</t>
+          <t>1424970</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2051338</t>
+          <t>1414711</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2080498</t>
+          <t>1433023</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2120528</t>
+          <t>1457454</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2099409</t>
+          <t>1441681</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2153390</t>
+          <t>1472848</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>5437</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4185677</t>
+          <t>2882423</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4159110</t>
+          <t>2861506</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4219697</t>
+          <t>2898535</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>95,75%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>870</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6099</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2415</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5119</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>3,58%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5862</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3103</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10519</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>8207</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>4531</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>14186</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>167826</t>
+          <t>74865</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>164072</t>
+          <t>72916</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>169544</t>
+          <t>76011</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98,87%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65162</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63827</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65809</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>98,37%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>140028</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>138004</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>141329</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>97,84%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>96,42%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>99,63%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>164580</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>159923</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>167339</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>96,56%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>93,83%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>98,18%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>332406</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>326427</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>336082</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>97,59%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>95,84%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,75%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,37 +7047,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>786</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>323</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8712</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7087,67 +7087,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14716</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9093</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22926</t>
+          <t>5786</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>18328</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>12459</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28054</t>
+          <t>6692</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>178600</t>
+          <t>74197</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>173501</t>
+          <t>73302</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>180992</t>
+          <t>74660</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>344</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>196762</t>
+          <t>64238</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>188552</t>
+          <t>62262</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>202385</t>
+          <t>65625</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>735</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>375362</t>
+          <t>138435</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>365636</t>
+          <t>136339</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>381231</t>
+          <t>139873</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>993</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10893</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14692</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8473</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21871</t>
+          <t>10058</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>20186</t>
+          <t>9345</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12337</t>
+          <t>7007</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28531</t>
+          <t>12543</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>242819</t>
+          <t>102128</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>237420</t>
+          <t>100476</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>246017</t>
+          <t>102967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>539</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>233959</t>
+          <t>103201</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>226780</t>
+          <t>100657</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>240178</t>
+          <t>105292</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>476778</t>
+          <t>205330</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>468433</t>
+          <t>202132</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>484627</t>
+          <t>207668</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>96,74%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9798</t>
+          <t>6324</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14497</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9711</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20719</t>
+          <t>12461</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>19086</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13405</t>
+          <t>10739</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>25821</t>
+          <t>16932</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>781</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>292418</t>
+          <t>140775</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>287209</t>
+          <t>138454</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294935</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>756</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>264478</t>
+          <t>143098</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>258256</t>
+          <t>140083</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>269264</t>
+          <t>145424</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>556897</t>
+          <t>283872</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>550162</t>
+          <t>280389</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>562578</t>
+          <t>286582</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>96,39%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8775</t>
+          <t>5615</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18181</t>
+          <t>9407</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12943</t>
+          <t>7165</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25458</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>22476</t>
+          <t>13200</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>16281</t>
+          <t>10469</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>30790</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>230405</t>
+          <t>125788</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>225925</t>
+          <t>123967</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>232712</t>
+          <t>127131</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>805</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>235915</t>
+          <t>142508</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>228638</t>
+          <t>139492</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>241153</t>
+          <t>144750</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>466320</t>
+          <t>268298</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>458006</t>
+          <t>264780</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>472515</t>
+          <t>271029</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>8700</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16643</t>
+          <t>11615</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12561</t>
+          <t>9187</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22398</t>
+          <t>14435</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>17929</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>14675</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>21351</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>6,66%</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>11,87%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>22546</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>17404</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>28551</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>610</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>178144</t>
+          <t>98151</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>175042</t>
+          <t>95766</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>180397</t>
+          <t>100091</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>172031</t>
+          <t>104165</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>166276</t>
+          <t>101345</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>176113</t>
+          <t>106593</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
+          <t>92,06%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>202317</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>198895</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>205571</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>91,86%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>90,31%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
           <t>93,34%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>350177</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>344172</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>355319</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>93,95%</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>92,34%</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>95,33%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11776</t>
+          <t>9437</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8277</t>
+          <t>7371</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15814</t>
+          <t>12103</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22093</t>
+          <t>22328</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17290</t>
+          <t>18921</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>28456</t>
+          <t>26411</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>33869</t>
+          <t>31764</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>27533</t>
+          <t>27854</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>41400</t>
+          <t>36769</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>16,6%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>134757</t>
+          <t>79786</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>130719</t>
+          <t>77120</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>138256</t>
+          <t>81852</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>668</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>189727</t>
+          <t>109984</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>183364</t>
+          <t>105901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>194530</t>
+          <t>113391</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,57%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>324484</t>
+          <t>189771</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>316953</t>
+          <t>184766</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>330820</t>
+          <t>193681</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>87,43%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>38016</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29963</t>
+          <t>23945</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>48275</t>
+          <t>33095</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>106683</t>
+          <t>65198</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91289</t>
+          <t>59161</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>122456</t>
+          <t>71947</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>560</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>144699</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>128587</t>
+          <t>85653</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>165616</t>
+          <t>101985</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1424970</t>
+          <t>695691</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1414711</t>
+          <t>690777</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1433023</t>
+          <t>699927</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1457454</t>
+          <t>732358</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1441681</t>
+          <t>725609</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1472848</t>
+          <t>738395</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>7993</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2882423</t>
+          <t>1428050</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2861506</t>
+          <t>1419444</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2898535</t>
+          <t>1435776</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
